--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efna2-Epha2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efna2-Epha2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Efna2</t>
+  </si>
+  <si>
+    <t>Epha2</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Efna2</t>
-  </si>
-  <si>
-    <t>Epha2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.137477</v>
+        <v>1.7317105</v>
       </c>
       <c r="H2">
-        <v>6.274953999999999</v>
+        <v>3.463421</v>
       </c>
       <c r="I2">
-        <v>0.2757933218263555</v>
+        <v>0.2580726189025833</v>
       </c>
       <c r="J2">
-        <v>0.2143624876083055</v>
+        <v>0.2162491041706965</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.140418</v>
+        <v>31.6939195</v>
       </c>
       <c r="N2">
-        <v>34.280836</v>
+        <v>63.387839</v>
       </c>
       <c r="O2">
-        <v>0.342078450107084</v>
+        <v>0.5590288178082639</v>
       </c>
       <c r="P2">
-        <v>0.2874037584536291</v>
+        <v>0.5498517214736327</v>
       </c>
       <c r="Q2">
-        <v>53.77766724538599</v>
+        <v>54.88469318430475</v>
       </c>
       <c r="R2">
-        <v>215.110668981544</v>
+        <v>219.538772737219</v>
       </c>
       <c r="S2">
-        <v>0.09434295208024392</v>
+        <v>0.1442700310537937</v>
       </c>
       <c r="T2">
-        <v>0.06160858461009649</v>
+        <v>0.1189049421953884</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.137477</v>
+        <v>1.7317105</v>
       </c>
       <c r="H3">
-        <v>6.274953999999999</v>
+        <v>3.463421</v>
       </c>
       <c r="I3">
-        <v>0.2757933218263555</v>
+        <v>0.2580726189025833</v>
       </c>
       <c r="J3">
-        <v>0.2143624876083055</v>
+        <v>0.2162491041706965</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>2.025413</v>
       </c>
       <c r="O3">
-        <v>0.01347400317905003</v>
+        <v>0.01190832240406543</v>
       </c>
       <c r="P3">
-        <v>0.01698066256671337</v>
+        <v>0.01756925054260132</v>
       </c>
       <c r="Q3">
-        <v>2.118228901000333</v>
+        <v>1.169142986312167</v>
       </c>
       <c r="R3">
-        <v>12.709373406002</v>
+        <v>7.014857917873</v>
       </c>
       <c r="S3">
-        <v>0.003716040095049083</v>
+        <v>0.003073211949553473</v>
       </c>
       <c r="T3">
-        <v>0.003640017069037912</v>
+        <v>0.003799334690788058</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.137477</v>
+        <v>1.7317105</v>
       </c>
       <c r="H4">
-        <v>6.274953999999999</v>
+        <v>3.463421</v>
       </c>
       <c r="I4">
-        <v>0.2757933218263555</v>
+        <v>0.2580726189025833</v>
       </c>
       <c r="J4">
-        <v>0.2143624876083055</v>
+        <v>0.2162491041706965</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.962955</v>
+        <v>0.6695323333333333</v>
       </c>
       <c r="N4">
-        <v>2.888865</v>
+        <v>2.008597</v>
       </c>
       <c r="O4">
-        <v>0.01921809339322221</v>
+        <v>0.01180945350693346</v>
       </c>
       <c r="P4">
-        <v>0.0242196736002921</v>
+        <v>0.01742338176565341</v>
       </c>
       <c r="Q4">
-        <v>3.021249164534999</v>
+        <v>1.159436171722833</v>
       </c>
       <c r="R4">
-        <v>18.12749498721</v>
+        <v>6.956617030337</v>
       </c>
       <c r="S4">
-        <v>0.00530022181608589</v>
+        <v>0.003047696594342614</v>
       </c>
       <c r="T4">
-        <v>0.005191789482019819</v>
+        <v>0.003767790698446599</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.137477</v>
+        <v>1.7317105</v>
       </c>
       <c r="H5">
-        <v>6.274953999999999</v>
+        <v>3.463421</v>
       </c>
       <c r="I5">
-        <v>0.2757933218263555</v>
+        <v>0.2580726189025833</v>
       </c>
       <c r="J5">
-        <v>0.2143624876083055</v>
+        <v>0.2162491041706965</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.9020255</v>
+        <v>23.1082075</v>
       </c>
       <c r="N5">
-        <v>27.804051</v>
+        <v>46.216415</v>
       </c>
       <c r="O5">
-        <v>0.2774485042540479</v>
+        <v>0.4075909235647884</v>
       </c>
       <c r="P5">
-        <v>0.2331036721985539</v>
+        <v>0.4008998531735689</v>
       </c>
       <c r="Q5">
-        <v>43.6172852596635</v>
+        <v>40.01672556392875</v>
       </c>
       <c r="R5">
-        <v>174.469141038654</v>
+        <v>160.066902255715</v>
       </c>
       <c r="S5">
-        <v>0.0765184446239776</v>
+        <v>0.1051880570852876</v>
       </c>
       <c r="T5">
-        <v>0.04996868304311301</v>
+        <v>0.08669423411094802</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.137477</v>
+        <v>1.7317105</v>
       </c>
       <c r="H6">
-        <v>6.274953999999999</v>
+        <v>3.463421</v>
       </c>
       <c r="I6">
-        <v>0.2757933218263555</v>
+        <v>0.2580726189025833</v>
       </c>
       <c r="J6">
-        <v>0.2143624876083055</v>
+        <v>0.2162491041706965</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.25287366666667</v>
+        <v>0.2922816666666667</v>
       </c>
       <c r="N6">
-        <v>48.75862100000001</v>
+        <v>0.876845</v>
       </c>
       <c r="O6">
-        <v>0.3243653587491024</v>
+        <v>0.005155369773173549</v>
       </c>
       <c r="P6">
-        <v>0.4087826484866369</v>
+        <v>0.007606107738040217</v>
       </c>
       <c r="Q6">
-        <v>50.99301731307234</v>
+        <v>0.5061472311241667</v>
       </c>
       <c r="R6">
-        <v>305.958103878434</v>
+        <v>3.036883386745</v>
       </c>
       <c r="S6">
-        <v>0.08945779977481247</v>
+        <v>0.001330459778774114</v>
       </c>
       <c r="T6">
-        <v>0.08762766542070699</v>
+        <v>0.001644813984577</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.137477</v>
+        <v>1.7317105</v>
       </c>
       <c r="H7">
-        <v>6.274953999999999</v>
+        <v>3.463421</v>
       </c>
       <c r="I7">
-        <v>0.2757933218263555</v>
+        <v>0.2580726189025833</v>
       </c>
       <c r="J7">
-        <v>0.2143624876083055</v>
+        <v>0.2162491041706965</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.173277666666667</v>
+        <v>0.255529</v>
       </c>
       <c r="N7">
-        <v>3.519833</v>
+        <v>0.7665869999999999</v>
       </c>
       <c r="O7">
-        <v>0.02341559031749338</v>
+        <v>0.004507112942775279</v>
       </c>
       <c r="P7">
-        <v>0.02950958469417468</v>
+        <v>0.006649685306503471</v>
       </c>
       <c r="Q7">
-        <v>3.681131693780333</v>
+        <v>0.4425022523545</v>
       </c>
       <c r="R7">
-        <v>22.086790162682</v>
+        <v>2.655013514127</v>
       </c>
       <c r="S7">
-        <v>0.006457863436186546</v>
+        <v>0.001163162440831745</v>
       </c>
       <c r="T7">
-        <v>0.006325747983331262</v>
+        <v>0.001437988490548419</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>6.92846</v>
       </c>
       <c r="I8">
-        <v>0.2030105717153232</v>
+        <v>0.3441772007430018</v>
       </c>
       <c r="J8">
-        <v>0.2366873001610275</v>
+        <v>0.4325992330364988</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.140418</v>
+        <v>31.6939195</v>
       </c>
       <c r="N8">
-        <v>34.280836</v>
+        <v>63.387839</v>
       </c>
       <c r="O8">
-        <v>0.342078450107084</v>
+        <v>0.5590288178082639</v>
       </c>
       <c r="P8">
-        <v>0.2874037584536291</v>
+        <v>0.5498517214736327</v>
       </c>
       <c r="Q8">
-        <v>39.58556683209334</v>
+        <v>73.19668449965667</v>
       </c>
       <c r="R8">
-        <v>237.51340099256</v>
+        <v>439.18010699794</v>
       </c>
       <c r="S8">
-        <v>0.06944554172773079</v>
+        <v>0.1924049736479178</v>
       </c>
       <c r="T8">
-        <v>0.06802481964452156</v>
+        <v>0.2378654329932921</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>6.92846</v>
       </c>
       <c r="I9">
-        <v>0.2030105717153232</v>
+        <v>0.3441772007430018</v>
       </c>
       <c r="J9">
-        <v>0.2366873001610275</v>
+        <v>0.4325992330364988</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>2.025413</v>
       </c>
       <c r="O9">
-        <v>0.01347400317905003</v>
+        <v>0.01190832240406543</v>
       </c>
       <c r="P9">
-        <v>0.01698066256671337</v>
+        <v>0.01756925054260132</v>
       </c>
       <c r="Q9">
         <v>1.559221439331111</v>
@@ -1013,10 +1013,10 @@
         <v>14.03299295398</v>
       </c>
       <c r="S9">
-        <v>0.00273536508867303</v>
+        <v>0.004098573070576416</v>
       </c>
       <c r="T9">
-        <v>0.004019107177860812</v>
+        <v>0.007600444309755421</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>6.92846</v>
       </c>
       <c r="I10">
-        <v>0.2030105717153232</v>
+        <v>0.3441772007430018</v>
       </c>
       <c r="J10">
-        <v>0.2366873001610275</v>
+        <v>0.4325992330364988</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.962955</v>
+        <v>0.6695323333333333</v>
       </c>
       <c r="N10">
-        <v>2.888865</v>
+        <v>2.008597</v>
       </c>
       <c r="O10">
-        <v>0.01921809339322221</v>
+        <v>0.01180945350693346</v>
       </c>
       <c r="P10">
-        <v>0.0242196736002921</v>
+        <v>0.01742338176565341</v>
       </c>
       <c r="Q10">
-        <v>2.2239317331</v>
+        <v>1.546275996735556</v>
       </c>
       <c r="R10">
-        <v>20.0153855979</v>
+        <v>13.91648397062</v>
       </c>
       <c r="S10">
-        <v>0.003901476127036517</v>
+        <v>0.004064544650320984</v>
       </c>
       <c r="T10">
-        <v>0.005732489155234451</v>
+        <v>0.007537341588723785</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>6.92846</v>
       </c>
       <c r="I11">
-        <v>0.2030105717153232</v>
+        <v>0.3441772007430018</v>
       </c>
       <c r="J11">
-        <v>0.2366873001610275</v>
+        <v>0.4325992330364988</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.9020255</v>
+        <v>23.1082075</v>
       </c>
       <c r="N11">
-        <v>27.804051</v>
+        <v>46.216415</v>
       </c>
       <c r="O11">
-        <v>0.2774485042540479</v>
+        <v>0.4075909235647884</v>
       </c>
       <c r="P11">
-        <v>0.2331036721985539</v>
+        <v>0.4008998531735689</v>
       </c>
       <c r="Q11">
-        <v>32.10654253191</v>
+        <v>53.36809711181667</v>
       </c>
       <c r="R11">
-        <v>192.63925519146</v>
+        <v>320.2085826709</v>
       </c>
       <c r="S11">
-        <v>0.05632497947017556</v>
+        <v>0.1402835031207837</v>
       </c>
       <c r="T11">
-        <v>0.05517267883029689</v>
+        <v>0.1734289690073309</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>6.92846</v>
       </c>
       <c r="I12">
-        <v>0.2030105717153232</v>
+        <v>0.3441772007430018</v>
       </c>
       <c r="J12">
-        <v>0.2366873001610275</v>
+        <v>0.4325992330364988</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.25287366666667</v>
+        <v>0.2922816666666667</v>
       </c>
       <c r="N12">
-        <v>48.75862100000001</v>
+        <v>0.876845</v>
       </c>
       <c r="O12">
-        <v>0.3243653587491024</v>
+        <v>0.005155369773173549</v>
       </c>
       <c r="P12">
-        <v>0.4087826484866369</v>
+        <v>0.007606107738040217</v>
       </c>
       <c r="Q12">
-        <v>37.53579502818445</v>
+        <v>0.6750206120777779</v>
       </c>
       <c r="R12">
-        <v>337.8221552536601</v>
+        <v>6.0751855087</v>
       </c>
       <c r="S12">
-        <v>0.06584959692430122</v>
+        <v>0.001774360737325956</v>
       </c>
       <c r="T12">
-        <v>0.09675366142297644</v>
+        <v>0.003290396373869177</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>6.92846</v>
       </c>
       <c r="I13">
-        <v>0.2030105717153232</v>
+        <v>0.3441772007430018</v>
       </c>
       <c r="J13">
-        <v>0.2366873001610275</v>
+        <v>0.4325992330364988</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.173277666666667</v>
+        <v>0.255529</v>
       </c>
       <c r="N13">
-        <v>3.519833</v>
+        <v>0.7665869999999999</v>
       </c>
       <c r="O13">
-        <v>0.02341559031749338</v>
+        <v>0.004507112942775279</v>
       </c>
       <c r="P13">
-        <v>0.02950958469417468</v>
+        <v>0.006649685306503471</v>
       </c>
       <c r="Q13">
-        <v>2.709669127464445</v>
+        <v>0.5901408184466667</v>
       </c>
       <c r="R13">
-        <v>24.38702214718</v>
+        <v>5.311267366019999</v>
       </c>
       <c r="S13">
-        <v>0.004753612377406118</v>
+        <v>0.001551245516076949</v>
       </c>
       <c r="T13">
-        <v>0.006984543930137387</v>
+        <v>0.002876648763527477</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,19 +1284,19 @@
         <v>2</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.5867000000000001</v>
+        <v>2.382906</v>
       </c>
       <c r="H14">
-        <v>1.7601</v>
+        <v>4.765812</v>
       </c>
       <c r="I14">
-        <v>0.05157263046566488</v>
+        <v>0.3551187060531648</v>
       </c>
       <c r="J14">
-        <v>0.06012783750117986</v>
+        <v>0.2975678023682237</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.140418</v>
+        <v>31.6939195</v>
       </c>
       <c r="N14">
-        <v>34.280836</v>
+        <v>63.387839</v>
       </c>
       <c r="O14">
-        <v>0.342078450107084</v>
+        <v>0.5590288178082639</v>
       </c>
       <c r="P14">
-        <v>0.2874037584536291</v>
+        <v>0.5498517214736327</v>
       </c>
       <c r="Q14">
-        <v>10.0562832406</v>
+        <v>75.52363094006701</v>
       </c>
       <c r="R14">
-        <v>60.33769944360001</v>
+        <v>302.094523760268</v>
       </c>
       <c r="S14">
-        <v>0.01764188549764002</v>
+        <v>0.1985215904265011</v>
       </c>
       <c r="T14">
-        <v>0.01728096648552816</v>
+        <v>0.1636181683872935</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,19 +1346,19 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.5867000000000001</v>
+        <v>2.382906</v>
       </c>
       <c r="H15">
-        <v>1.7601</v>
+        <v>4.765812</v>
       </c>
       <c r="I15">
-        <v>0.05157263046566488</v>
+        <v>0.3551187060531648</v>
       </c>
       <c r="J15">
-        <v>0.06012783750117986</v>
+        <v>0.2975678023682237</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>2.025413</v>
       </c>
       <c r="O15">
-        <v>0.01347400317905003</v>
+        <v>0.01190832240406543</v>
       </c>
       <c r="P15">
-        <v>0.01698066256671337</v>
+        <v>0.01756925054260132</v>
       </c>
       <c r="Q15">
-        <v>0.3961032690333334</v>
+        <v>1.608789596726</v>
       </c>
       <c r="R15">
-        <v>3.5649294213</v>
+        <v>9.652737580356</v>
       </c>
       <c r="S15">
-        <v>0.0006948897868463412</v>
+        <v>0.00422886804339563</v>
       </c>
       <c r="T15">
-        <v>0.001021010519473709</v>
+        <v>0.005228043273218595</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.5867000000000001</v>
+        <v>2.382906</v>
       </c>
       <c r="H16">
-        <v>1.7601</v>
+        <v>4.765812</v>
       </c>
       <c r="I16">
-        <v>0.05157263046566488</v>
+        <v>0.3551187060531648</v>
       </c>
       <c r="J16">
-        <v>0.06012783750117986</v>
+        <v>0.2975678023682237</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.962955</v>
+        <v>0.6695323333333333</v>
       </c>
       <c r="N16">
-        <v>2.888865</v>
+        <v>2.008597</v>
       </c>
       <c r="O16">
-        <v>0.01921809339322221</v>
+        <v>0.01180945350693346</v>
       </c>
       <c r="P16">
-        <v>0.0242196736002921</v>
+        <v>0.01742338176565341</v>
       </c>
       <c r="Q16">
-        <v>0.5649656985000001</v>
+        <v>1.595432614294</v>
       </c>
       <c r="R16">
-        <v>5.084691286500001</v>
+        <v>9.572595685764</v>
       </c>
       <c r="S16">
-        <v>0.0009911276288232847</v>
+        <v>0.00419375784857722</v>
       </c>
       <c r="T16">
-        <v>0.001456276598569979</v>
+        <v>0.005184637421828067</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.5867000000000001</v>
+        <v>2.382906</v>
       </c>
       <c r="H17">
-        <v>1.7601</v>
+        <v>4.765812</v>
       </c>
       <c r="I17">
-        <v>0.05157263046566488</v>
+        <v>0.3551187060531648</v>
       </c>
       <c r="J17">
-        <v>0.06012783750117986</v>
+        <v>0.2975678023682237</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.9020255</v>
+        <v>23.1082075</v>
       </c>
       <c r="N17">
-        <v>27.804051</v>
+        <v>46.216415</v>
       </c>
       <c r="O17">
-        <v>0.2774485042540479</v>
+        <v>0.4075909235647884</v>
       </c>
       <c r="P17">
-        <v>0.2331036721985539</v>
+        <v>0.4008998531735689</v>
       </c>
       <c r="Q17">
-        <v>8.156318360850001</v>
+        <v>55.064686300995</v>
       </c>
       <c r="R17">
-        <v>48.93791016510001</v>
+        <v>220.25874520398</v>
       </c>
       <c r="S17">
-        <v>0.01430874918314546</v>
+        <v>0.144743161375342</v>
       </c>
       <c r="T17">
-        <v>0.01401601972288294</v>
+        <v>0.1192948882786024</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.5867000000000001</v>
+        <v>2.382906</v>
       </c>
       <c r="H18">
-        <v>1.7601</v>
+        <v>4.765812</v>
       </c>
       <c r="I18">
-        <v>0.05157263046566488</v>
+        <v>0.3551187060531648</v>
       </c>
       <c r="J18">
-        <v>0.06012783750117986</v>
+        <v>0.2975678023682237</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>16.25287366666667</v>
+        <v>0.2922816666666667</v>
       </c>
       <c r="N18">
-        <v>48.75862100000001</v>
+        <v>0.876845</v>
       </c>
       <c r="O18">
-        <v>0.3243653587491024</v>
+        <v>0.005155369773173549</v>
       </c>
       <c r="P18">
-        <v>0.4087826484866369</v>
+        <v>0.007606107738040217</v>
       </c>
       <c r="Q18">
-        <v>9.535560980233337</v>
+        <v>0.69647973719</v>
       </c>
       <c r="R18">
-        <v>85.82004882210002</v>
+        <v>4.17887842314</v>
       </c>
       <c r="S18">
-        <v>0.01672837478263028</v>
+        <v>0.001830768243074988</v>
       </c>
       <c r="T18">
-        <v>0.02457921666150643</v>
+        <v>0.002263332764184568</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.5867000000000001</v>
+        <v>2.382906</v>
       </c>
       <c r="H19">
-        <v>1.7601</v>
+        <v>4.765812</v>
       </c>
       <c r="I19">
-        <v>0.05157263046566488</v>
+        <v>0.3551187060531648</v>
       </c>
       <c r="J19">
-        <v>0.06012783750117986</v>
+        <v>0.2975678023682237</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.173277666666667</v>
+        <v>0.255529</v>
       </c>
       <c r="N19">
-        <v>3.519833</v>
+        <v>0.7665869999999999</v>
       </c>
       <c r="O19">
-        <v>0.02341559031749338</v>
+        <v>0.004507112942775279</v>
       </c>
       <c r="P19">
-        <v>0.02950958469417468</v>
+        <v>0.006649685306503471</v>
       </c>
       <c r="Q19">
-        <v>0.6883620070333335</v>
+        <v>0.6089015872739999</v>
       </c>
       <c r="R19">
-        <v>6.195258063300001</v>
+        <v>3.653409523644</v>
       </c>
       <c r="S19">
-        <v>0.001207603586579487</v>
+        <v>0.001600560116273829</v>
       </c>
       <c r="T19">
-        <v>0.00177434751321864</v>
+        <v>0.001978732243096506</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>1.7184595</v>
+        <v>0.05833266666666666</v>
       </c>
       <c r="H20">
-        <v>3.436919000000001</v>
+        <v>0.174998</v>
       </c>
       <c r="I20">
-        <v>0.1510575707579874</v>
+        <v>0.008693175940342274</v>
       </c>
       <c r="J20">
-        <v>0.1174106625400361</v>
+        <v>0.01092652632517489</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.140418</v>
+        <v>31.6939195</v>
       </c>
       <c r="N20">
-        <v>34.280836</v>
+        <v>63.387839</v>
       </c>
       <c r="O20">
-        <v>0.342078450107084</v>
+        <v>0.5590288178082639</v>
       </c>
       <c r="P20">
-        <v>0.2874037584536291</v>
+        <v>0.5498517214736327</v>
       </c>
       <c r="Q20">
-        <v>29.455114146071</v>
+        <v>1.848790841553667</v>
       </c>
       <c r="R20">
-        <v>117.820456584284</v>
+        <v>11.092745049322</v>
       </c>
       <c r="S20">
-        <v>0.05167353968183351</v>
+        <v>0.004859735868928784</v>
       </c>
       <c r="T20">
-        <v>0.0337442656965371</v>
+        <v>0.006007969309624378</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>1.7184595</v>
+        <v>0.05833266666666666</v>
       </c>
       <c r="H21">
-        <v>3.436919000000001</v>
+        <v>0.174998</v>
       </c>
       <c r="I21">
-        <v>0.1510575707579874</v>
+        <v>0.008693175940342274</v>
       </c>
       <c r="J21">
-        <v>0.1174106625400361</v>
+        <v>0.01092652632517489</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>2.025413</v>
       </c>
       <c r="O21">
-        <v>0.01347400317905003</v>
+        <v>0.01190832240406543</v>
       </c>
       <c r="P21">
-        <v>0.01698066256671337</v>
+        <v>0.01756925054260132</v>
       </c>
       <c r="Q21">
-        <v>1.160196737091167</v>
+        <v>0.03938258046377777</v>
       </c>
       <c r="R21">
-        <v>6.961180422547001</v>
+        <v>0.354443224174</v>
       </c>
       <c r="S21">
-        <v>0.002035350188612698</v>
+        <v>0.0001035211418128605</v>
       </c>
       <c r="T21">
-        <v>0.001993710842326607</v>
+        <v>0.0001919708785673265</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>1.7184595</v>
+        <v>0.05833266666666666</v>
       </c>
       <c r="H22">
-        <v>3.436919000000001</v>
+        <v>0.174998</v>
       </c>
       <c r="I22">
-        <v>0.1510575707579874</v>
+        <v>0.008693175940342274</v>
       </c>
       <c r="J22">
-        <v>0.1174106625400361</v>
+        <v>0.01092652632517489</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.962955</v>
+        <v>0.6695323333333333</v>
       </c>
       <c r="N22">
-        <v>2.888865</v>
+        <v>2.008597</v>
       </c>
       <c r="O22">
-        <v>0.01921809339322221</v>
+        <v>0.01180945350693346</v>
       </c>
       <c r="P22">
-        <v>0.0242196736002921</v>
+        <v>0.01742338176565341</v>
       </c>
       <c r="Q22">
-        <v>1.6547991678225</v>
+        <v>0.03905560642288888</v>
       </c>
       <c r="R22">
-        <v>9.928795006935001</v>
+        <v>0.351500457806</v>
       </c>
       <c r="S22">
-        <v>0.002903038502580275</v>
+        <v>0.0001026616570950646</v>
       </c>
       <c r="T22">
-        <v>0.002843647923913718</v>
+        <v>0.0001903770395359842</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>1.7184595</v>
+        <v>0.05833266666666666</v>
       </c>
       <c r="H23">
-        <v>3.436919000000001</v>
+        <v>0.174998</v>
       </c>
       <c r="I23">
-        <v>0.1510575707579874</v>
+        <v>0.008693175940342274</v>
       </c>
       <c r="J23">
-        <v>0.1174106625400361</v>
+        <v>0.01092652632517489</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>13.9020255</v>
+        <v>23.1082075</v>
       </c>
       <c r="N23">
-        <v>27.804051</v>
+        <v>46.216415</v>
       </c>
       <c r="O23">
-        <v>0.2774485042540479</v>
+        <v>0.4075909235647884</v>
       </c>
       <c r="P23">
-        <v>0.2331036721985539</v>
+        <v>0.4008998531735689</v>
       </c>
       <c r="Q23">
-        <v>23.89006778971725</v>
+        <v>1.347963365361666</v>
       </c>
       <c r="R23">
-        <v>95.56027115886901</v>
+        <v>8.087780192169999</v>
       </c>
       <c r="S23">
-        <v>0.04191069706305361</v>
+        <v>0.003543259610235305</v>
       </c>
       <c r="T23">
-        <v>0.02736885659334761</v>
+        <v>0.004380442799459748</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>1.7184595</v>
+        <v>0.05833266666666666</v>
       </c>
       <c r="H24">
-        <v>3.436919000000001</v>
+        <v>0.174998</v>
       </c>
       <c r="I24">
-        <v>0.1510575707579874</v>
+        <v>0.008693175940342274</v>
       </c>
       <c r="J24">
-        <v>0.1174106625400361</v>
+        <v>0.01092652632517489</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>16.25287366666667</v>
+        <v>0.2922816666666667</v>
       </c>
       <c r="N24">
-        <v>48.75862100000001</v>
+        <v>0.876845</v>
       </c>
       <c r="O24">
-        <v>0.3243653587491024</v>
+        <v>0.005155369773173549</v>
       </c>
       <c r="P24">
-        <v>0.4087826484866369</v>
+        <v>0.007606107738040217</v>
       </c>
       <c r="Q24">
-        <v>27.92990515478317</v>
+        <v>0.01704956903444444</v>
       </c>
       <c r="R24">
-        <v>167.5794309286991</v>
+        <v>0.15344612131</v>
       </c>
       <c r="S24">
-        <v>0.04899784313068252</v>
+        <v>4.48165364757201E-05</v>
       </c>
       <c r="T24">
-        <v>0.04799544159368673</v>
+        <v>8.310833643181287E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>1.7184595</v>
+        <v>0.05833266666666666</v>
       </c>
       <c r="H25">
-        <v>3.436919000000001</v>
+        <v>0.174998</v>
       </c>
       <c r="I25">
-        <v>0.1510575707579874</v>
+        <v>0.008693175940342274</v>
       </c>
       <c r="J25">
-        <v>0.1174106625400361</v>
+        <v>0.01092652632517489</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.173277666666667</v>
+        <v>0.255529</v>
       </c>
       <c r="N25">
-        <v>3.519833</v>
+        <v>0.7665869999999999</v>
       </c>
       <c r="O25">
-        <v>0.02341559031749338</v>
+        <v>0.004507112942775279</v>
       </c>
       <c r="P25">
-        <v>0.02950958469417468</v>
+        <v>0.006649685306503471</v>
       </c>
       <c r="Q25">
-        <v>2.016230152421167</v>
+        <v>0.01490568798066666</v>
       </c>
       <c r="R25">
-        <v>12.097380914527</v>
+        <v>0.134151191826</v>
       </c>
       <c r="S25">
-        <v>0.003537102191224801</v>
+        <v>3.918112579453933E-05</v>
       </c>
       <c r="T25">
-        <v>0.003464739890224359</v>
+        <v>7.265796155563883E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>2.103366333333333</v>
+        <v>0.2277316666666667</v>
       </c>
       <c r="H26">
-        <v>6.310098999999999</v>
+        <v>0.683195</v>
       </c>
       <c r="I26">
-        <v>0.1848919970051482</v>
+        <v>0.03393829836090777</v>
       </c>
       <c r="J26">
-        <v>0.2155630971469561</v>
+        <v>0.04265733409940604</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>17.140418</v>
+        <v>31.6939195</v>
       </c>
       <c r="N26">
-        <v>34.280836</v>
+        <v>63.387839</v>
       </c>
       <c r="O26">
-        <v>0.342078450107084</v>
+        <v>0.5590288178082639</v>
       </c>
       <c r="P26">
-        <v>0.2874037584536291</v>
+        <v>0.5498517214736327</v>
       </c>
       <c r="Q26">
-        <v>36.05257816046066</v>
+        <v>7.217709110934167</v>
       </c>
       <c r="R26">
-        <v>216.315468962764</v>
+        <v>43.306254665605</v>
       </c>
       <c r="S26">
-        <v>0.06324756777272472</v>
+        <v>0.01897248681112241</v>
       </c>
       <c r="T26">
-        <v>0.06195364430393996</v>
+        <v>0.02345520858803431</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>2.103366333333333</v>
+        <v>0.2277316666666667</v>
       </c>
       <c r="H27">
-        <v>6.310098999999999</v>
+        <v>0.683195</v>
       </c>
       <c r="I27">
-        <v>0.1848919970051482</v>
+        <v>0.03393829836090777</v>
       </c>
       <c r="J27">
-        <v>0.2155630971469561</v>
+        <v>0.04265733409940604</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>2.025413</v>
       </c>
       <c r="O27">
-        <v>0.01347400317905003</v>
+        <v>0.01190832240406543</v>
       </c>
       <c r="P27">
-        <v>0.01698066256671337</v>
+        <v>0.01756925054260132</v>
       </c>
       <c r="Q27">
-        <v>1.420061838431889</v>
+        <v>0.1537502260594444</v>
       </c>
       <c r="R27">
-        <v>12.780556545887</v>
+        <v>1.383752034535</v>
       </c>
       <c r="S27">
-        <v>0.002491235355428276</v>
+        <v>0.0004041481987270553</v>
       </c>
       <c r="T27">
-        <v>0.003660404214488116</v>
+        <v>0.0007494573902719153</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>27</v>
       </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>2.103366333333333</v>
+        <v>0.2277316666666667</v>
       </c>
       <c r="H28">
-        <v>6.310098999999999</v>
+        <v>0.683195</v>
       </c>
       <c r="I28">
-        <v>0.1848919970051482</v>
+        <v>0.03393829836090777</v>
       </c>
       <c r="J28">
-        <v>0.2155630971469561</v>
+        <v>0.04265733409940604</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.962955</v>
+        <v>0.6695323333333333</v>
       </c>
       <c r="N28">
-        <v>2.888865</v>
+        <v>2.008597</v>
       </c>
       <c r="O28">
-        <v>0.01921809339322221</v>
+        <v>0.01180945350693346</v>
       </c>
       <c r="P28">
-        <v>0.0242196736002921</v>
+        <v>0.01742338176565341</v>
       </c>
       <c r="Q28">
-        <v>2.025447127515</v>
+        <v>0.1524737141572222</v>
       </c>
       <c r="R28">
-        <v>18.229024147635</v>
+        <v>1.372263427415</v>
       </c>
       <c r="S28">
-        <v>0.0035532716661043</v>
+        <v>0.0004007927565975764</v>
       </c>
       <c r="T28">
-        <v>0.005220867853167335</v>
+        <v>0.0007432350171189769</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>2.103366333333333</v>
+        <v>0.2277316666666667</v>
       </c>
       <c r="H29">
-        <v>6.310098999999999</v>
+        <v>0.683195</v>
       </c>
       <c r="I29">
-        <v>0.1848919970051482</v>
+        <v>0.03393829836090777</v>
       </c>
       <c r="J29">
-        <v>0.2155630971469561</v>
+        <v>0.04265733409940604</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>13.9020255</v>
+        <v>23.1082075</v>
       </c>
       <c r="N29">
-        <v>27.804051</v>
+        <v>46.216415</v>
       </c>
       <c r="O29">
-        <v>0.2774485042540479</v>
+        <v>0.4075909235647884</v>
       </c>
       <c r="P29">
-        <v>0.2331036721985539</v>
+        <v>0.4008998531735689</v>
       </c>
       <c r="Q29">
-        <v>29.2410524018415</v>
+        <v>5.262470607654167</v>
       </c>
       <c r="R29">
-        <v>175.446314411049</v>
+        <v>31.574823645925</v>
       </c>
       <c r="S29">
-        <v>0.05129800801762227</v>
+        <v>0.01383294237313974</v>
       </c>
       <c r="T29">
-        <v>0.05024854953544908</v>
+        <v>0.01710131897722775</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>2.103366333333333</v>
+        <v>0.2277316666666667</v>
       </c>
       <c r="H30">
-        <v>6.310098999999999</v>
+        <v>0.683195</v>
       </c>
       <c r="I30">
-        <v>0.1848919970051482</v>
+        <v>0.03393829836090777</v>
       </c>
       <c r="J30">
-        <v>0.2155630971469561</v>
+        <v>0.04265733409940604</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>16.25287366666667</v>
+        <v>0.2922816666666667</v>
       </c>
       <c r="N30">
-        <v>48.75862100000001</v>
+        <v>0.876845</v>
       </c>
       <c r="O30">
-        <v>0.3243653587491024</v>
+        <v>0.005155369773173549</v>
       </c>
       <c r="P30">
-        <v>0.4087826484866369</v>
+        <v>0.007606107738040217</v>
       </c>
       <c r="Q30">
-        <v>34.18574729038656</v>
+        <v>0.06656179108611111</v>
       </c>
       <c r="R30">
-        <v>307.671725613479</v>
+        <v>0.599056119775</v>
       </c>
       <c r="S30">
-        <v>0.05997255893841288</v>
+        <v>0.0001749644775227693</v>
       </c>
       <c r="T30">
-        <v>0.08811845376771492</v>
+        <v>0.0003244562789776592</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>2.103366333333333</v>
+        <v>0.2277316666666667</v>
       </c>
       <c r="H31">
-        <v>6.310098999999999</v>
+        <v>0.683195</v>
       </c>
       <c r="I31">
-        <v>0.1848919970051482</v>
+        <v>0.03393829836090777</v>
       </c>
       <c r="J31">
-        <v>0.2155630971469561</v>
+        <v>0.04265733409940604</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.173277666666667</v>
+        <v>0.255529</v>
       </c>
       <c r="N31">
-        <v>3.519833</v>
+        <v>0.7665869999999999</v>
       </c>
       <c r="O31">
-        <v>0.02341559031749338</v>
+        <v>0.004507112942775279</v>
       </c>
       <c r="P31">
-        <v>0.02950958469417468</v>
+        <v>0.006649685306503471</v>
       </c>
       <c r="Q31">
-        <v>2.467832743718555</v>
+        <v>0.05819204505166665</v>
       </c>
       <c r="R31">
-        <v>22.210494693467</v>
+        <v>0.5237284054649999</v>
       </c>
       <c r="S31">
-        <v>0.004329355254855763</v>
+        <v>0.0001529637437982165</v>
       </c>
       <c r="T31">
-        <v>0.006361177472196707</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>1.520699666666667</v>
-      </c>
-      <c r="H32">
-        <v>4.562099</v>
-      </c>
-      <c r="I32">
-        <v>0.1336739082295206</v>
-      </c>
-      <c r="J32">
-        <v>0.1558486150424948</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>17.140418</v>
-      </c>
-      <c r="N32">
-        <v>34.280836</v>
-      </c>
-      <c r="O32">
-        <v>0.342078450107084</v>
-      </c>
-      <c r="P32">
-        <v>0.2874037584536291</v>
-      </c>
-      <c r="Q32">
-        <v>26.06542793912733</v>
-      </c>
-      <c r="R32">
-        <v>156.392567634764</v>
-      </c>
-      <c r="S32">
-        <v>0.04572696334691099</v>
-      </c>
-      <c r="T32">
-        <v>0.0447914777130058</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>1.520699666666667</v>
-      </c>
-      <c r="H33">
-        <v>4.562099</v>
-      </c>
-      <c r="I33">
-        <v>0.1336739082295206</v>
-      </c>
-      <c r="J33">
-        <v>0.1558486150424948</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>0.6751376666666666</v>
-      </c>
-      <c r="N33">
-        <v>2.025413</v>
-      </c>
-      <c r="O33">
-        <v>0.01347400317905003</v>
-      </c>
-      <c r="P33">
-        <v>0.01698066256671337</v>
-      </c>
-      <c r="Q33">
-        <v>1.026681624654111</v>
-      </c>
-      <c r="R33">
-        <v>9.240134621887</v>
-      </c>
-      <c r="S33">
-        <v>0.001801122664440603</v>
-      </c>
-      <c r="T33">
-        <v>0.002646412743526214</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>1.520699666666667</v>
-      </c>
-      <c r="H34">
-        <v>4.562099</v>
-      </c>
-      <c r="I34">
-        <v>0.1336739082295206</v>
-      </c>
-      <c r="J34">
-        <v>0.1558486150424948</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>0.962955</v>
-      </c>
-      <c r="N34">
-        <v>2.888865</v>
-      </c>
-      <c r="O34">
-        <v>0.01921809339322221</v>
-      </c>
-      <c r="P34">
-        <v>0.0242196736002921</v>
-      </c>
-      <c r="Q34">
-        <v>1.464365347515</v>
-      </c>
-      <c r="R34">
-        <v>13.179288127635</v>
-      </c>
-      <c r="S34">
-        <v>0.002568957652591942</v>
-      </c>
-      <c r="T34">
-        <v>0.003774602587386798</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>1.520699666666667</v>
-      </c>
-      <c r="H35">
-        <v>4.562099</v>
-      </c>
-      <c r="I35">
-        <v>0.1336739082295206</v>
-      </c>
-      <c r="J35">
-        <v>0.1558486150424948</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>13.9020255</v>
-      </c>
-      <c r="N35">
-        <v>27.804051</v>
-      </c>
-      <c r="O35">
-        <v>0.2774485042540479</v>
-      </c>
-      <c r="P35">
-        <v>0.2331036721985539</v>
-      </c>
-      <c r="Q35">
-        <v>21.1408055438415</v>
-      </c>
-      <c r="R35">
-        <v>126.844833263049</v>
-      </c>
-      <c r="S35">
-        <v>0.03708762589607335</v>
-      </c>
-      <c r="T35">
-        <v>0.03632888447346432</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>1.520699666666667</v>
-      </c>
-      <c r="H36">
-        <v>4.562099</v>
-      </c>
-      <c r="I36">
-        <v>0.1336739082295206</v>
-      </c>
-      <c r="J36">
-        <v>0.1558486150424948</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>16.25287366666667</v>
-      </c>
-      <c r="N36">
-        <v>48.75862100000001</v>
-      </c>
-      <c r="O36">
-        <v>0.3243653587491024</v>
-      </c>
-      <c r="P36">
-        <v>0.4087826484866369</v>
-      </c>
-      <c r="Q36">
-        <v>24.71573956727545</v>
-      </c>
-      <c r="R36">
-        <v>222.441656105479</v>
-      </c>
-      <c r="S36">
-        <v>0.04335918519826305</v>
-      </c>
-      <c r="T36">
-        <v>0.06370820962004534</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>1.520699666666667</v>
-      </c>
-      <c r="H37">
-        <v>4.562099</v>
-      </c>
-      <c r="I37">
-        <v>0.1336739082295206</v>
-      </c>
-      <c r="J37">
-        <v>0.1558486150424948</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>1.173277666666667</v>
-      </c>
-      <c r="N37">
-        <v>3.519833</v>
-      </c>
-      <c r="O37">
-        <v>0.02341559031749338</v>
-      </c>
-      <c r="P37">
-        <v>0.02950958469417468</v>
-      </c>
-      <c r="Q37">
-        <v>1.784202956607444</v>
-      </c>
-      <c r="R37">
-        <v>16.057826609467</v>
-      </c>
-      <c r="S37">
-        <v>0.003130053471240661</v>
-      </c>
-      <c r="T37">
-        <v>0.004599027905066328</v>
+        <v>0.0002836578477754298</v>
       </c>
     </row>
   </sheetData>
